--- a/UserStories/arslan/User_Stories.xlsx
+++ b/UserStories/arslan/User_Stories.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
   <si>
     <t xml:space="preserve"> Βήματα διεργασίας SCRUM</t>
   </si>
@@ -141,45 +141,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ως &lt;τύπος χρήστη&gt;, θέλω να &lt;κάνω … &gt; ώστε να &lt;επωφεληθώ ...&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US01</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Ως μη-ταυτοποιημένος χρήστης θέλω να  </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-      </rPr>
-      <t xml:space="preserve">δημιουργήσω λογαριασμό </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-      </rPr>
-      <t xml:space="preserve">για να έχω πρόσβαση στο σύστημα</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Στο UI εισάγω τα στοιχεία μου (ονοματεπώνυμο, κλπ, email, username, passw) και δημιουργείται ο λογαριασμός μου</t>
   </si>
   <si>
     <t xml:space="preserve">US02</t>
@@ -246,7 +207,7 @@
     <t xml:space="preserve">Ως καθηγητης,θελω να εχω δυνατοτητα να βαζω βαθμολογια στους μαθητες που παρακολουθουν το μαθημα/μαθηματα που διδασκω.</t>
   </si>
   <si>
-    <t xml:space="preserve">Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη "Δηλωση Βαθμολογιας" το οποιο θα οδηγει τον καθηγητη στη φορμα δηλωσης βαθμολογιας φοιτητων.</t>
+    <t xml:space="preserve">Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη "Δηλωση Βαθμολογιας" η οποια θα οδηγει τον καθηγητη στο περιβαλλον δηλωσης βαθμολογιας φοιτητων.</t>
   </si>
   <si>
     <t xml:space="preserve">US05</t>
@@ -255,7 +216,7 @@
     <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα να προσθετω και να αφαιρω καθηγητη/-ες απο το συστημα.</t>
   </si>
   <si>
-    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη "Προσθηκη/Αφαιρεση Καθηγητη" το οποιο θα τον οδηγει στο περιβαλλον διαχειρισης καθηγητων.</t>
+    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη "Προσθηκη/Αφαιρεση Καθηγητη" η οποια θα τον οδηγει στο περιβαλλον διαχειρισης καθηγητων.</t>
   </si>
   <si>
     <t xml:space="preserve">US06</t>
@@ -265,6 +226,105 @@
   </si>
   <si>
     <t xml:space="preserve">Πατώντας την επιλογή  Δήλωση στο συστημα,θα μπορέι ο ταυτοποιήμενος χρήστης να δει τα μαθήματα που δήλωσε.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα να προσθετω/αφαιρω μαθημα.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη "Επεξεργασιας Μαθηματων” η οποια θα οδηγει τον διαχειριστη στο περιβαλλον διαχειρησης μαθηματων.Εκει θα υπαρχει,εκτος αλλων, κουμπι “Προσθηκη Μαθηματος” το οποιο θα τον οδηγησει στην φορμα για την προσθηκη του μαθηματος.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα να δηλωνω ημερομηνια και ωρα δηλωσης μαθηματων.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Ορισμος Δηλωσης Μαθηματων” η οποια τον οδηγει στην φορμα οπου,εκτος αλλων,θα υπαρχει πεδιο “Ημερομηνια Εναρξης Δηλωσης Μαθηματων”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα να δηλωνω τις ομαδες στις οποιες θα χωριζονται οι φοιτητες και τις ωρες για καθε ομαδα στις οποιες οι φοιτητες που ανηκουν στην ομαδα θα πρεπει να δηλωσουν τα μαθημα.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Ορισμος Δηλωσης Μαθηματων” η οποια θα τον οδηγει στην φορμα οπου,εκτος αλλων,θα υπαρχει κουμπι “Προσθηκη Ομαδας”με το οποιο δηλωνη την ομαδα με βαση καποια κριτιρια.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως διαχειριστης,θελω μετα την προσθηκη των ομαδων για τη δηλωση μαθηματων να βλεπω τον αριθμο των φοιτητων που ανηκουν σε καθε ομαδα.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο διαχειριστης ολοκληρωση την προσθηκη της ομαδας,θα του εμφανιζεται ο αριθμος των φοιτητων που ανηκουν στην ομαδα.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα να δημιουργω χ αριθμο κωδικων για χ φοιττηες.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Φοιτητες” η οποια θα τον οδηγει στο περιβαλλον διαχειρησης φοιτητων.Εκει,εκτος αλλων,θα υπαρχει κουμπι “Δημιουργια Κωδικων Φοιτητων” το οποιο θα οδηγει τον διαχειριστη στη φορμα οπου θα δηλωνει,εκτος αλλων,εναν αριθμο – τον αριθμο των κωδικων που θελει να δημιουργησει και το κουμπι “Δημιουργια” το οποιο θα δημιουργει και αποθηκευει ολους τους κωδικους</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως φοιτητης,θελω να εχω δυνατοτητα να αλλαζω τον κωδικο μου.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο φοιτητης θα μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Ο λογαριασμος μου” η οποια θα τον οδηγει στην φορμα οπου θα μπορει,εκτος αλλων,να αλλαζει τον κωδικο του.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως φοιτητης,θελω να εχω δυνατοτητα να βλεπω την τρεχουσα βαθμολογια μου στα μαθηματα.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο φοιτητης θα μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Η βαθμολογια μου” η οποια θα οδηγει τον φοιτητη στη λιστα των μαθηματων που δηλωσε και θα εμφανιζει τις αντιστοιχες βαθμολογιες αυτων.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως διαχειριστης,θελω(μετα τη δηλωση μαθηματος με εργαστηριο) να εχω δυνατοτητα προσθεσης/αφαιρεσης εργαστηριων.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Επεξεργασιας Εργαστηριων” οπου,εκτος αλλων,θα υπαρχει δυνατοτητα προσθηκης/αφαιρεσης εργαστηριων.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως καθηγητης που διδασκω καποιο εργαστηριο,θελω να εχω δυνατοτητα να προσθετω φοιτητες στο εργαστηριο.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Τα εργαστηρια μου” οπου,διαλεγωντας το εργαστηριο,θα του ανοιγει φορμα οπου,εκτος αλλων,θα υπαρχει δυνατοτηα προσθηκη φοιτητη.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως καθηγητης που διδασκω καποιο εργαστηριο,θελω να εχω δυνατοτητα να προσθετω απουσιες στους φοιτιτες που παρακολουθουν το εργαστηριο</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Τα εργαστηρια μου” οπου,διαλεγωντας το εργαστηριο,θα του ανοιγει φορμα οπου,εκτος αλλων,θα υπαρχει λιστα φοιτητων και κουμπι “Αυξηση απουσιων” διπλα σε καθε φοιτητη.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως φοιτητης,θελω να εχω δυνατοτητα να δηλωνω μαθηματα κατα την δηλωσω των μαθηματων.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο φοιτητης θα μπαινει στο συστημα και εφοσον θα ανηκει στην καταλληλη ομαδα,θα υπαρχει επιλογη “Δηλωση Μαθηματων” η οποια θα τον οδηγει στο περιβαλλον δηλωσης μαθηματων οπου θα μπορει να επιλεγει τα μαθηματα και εργαστηρια τα οποια θελει να παρακολουθηση.</t>
   </si>
 </sst>
 </file>
@@ -275,7 +335,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -287,19 +347,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="161"/>
     </font>
     <font>
       <b val="true"/>
@@ -392,6 +449,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -442,7 +505,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -535,11 +598,19 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -626,14 +697,11 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="39.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -860,20 +928,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="60.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="13" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="13" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -959,7 +1026,7 @@
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
     </row>
-    <row r="8" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="89.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
         <v>49</v>
       </c>
@@ -972,7 +1039,7 @@
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
     </row>
-    <row r="9" customFormat="false" ht="89.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="64.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
         <v>52</v>
       </c>
@@ -985,7 +1052,7 @@
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
     </row>
-    <row r="10" customFormat="false" ht="64.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="65.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
         <v>55</v>
       </c>
@@ -998,148 +1065,202 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
+    <row r="11" customFormat="false" ht="56.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
     </row>
-    <row r="12" customFormat="false" ht="45.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+    <row r="12" customFormat="false" ht="48.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>63</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
     </row>
-    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
+    <row r="13" customFormat="false" ht="35.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>66</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
     </row>
-    <row r="14" customFormat="false" ht="35.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-    </row>
-    <row r="15" customFormat="false" ht="35.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
+    <row r="14" customFormat="false" ht="86.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" customFormat="false" ht="42.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>72</v>
+      </c>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
     </row>
-    <row r="16" customFormat="false" ht="35.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="23"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+    <row r="16" customFormat="false" ht="46.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>75</v>
+      </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
+    <row r="17" customFormat="false" ht="50.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>78</v>
+      </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="23"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
+    <row r="18" customFormat="false" ht="40.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>81</v>
+      </c>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="23"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+    <row r="19" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>84</v>
+      </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="23"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+    <row r="20" customFormat="false" ht="57.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>87</v>
+      </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="23"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="23"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="23"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="23"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="23"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="23"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="23"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-    </row>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/UserStories/arslan/User_Stories.xlsx
+++ b/UserStories/arslan/User_Stories.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="91">
   <si>
     <t xml:space="preserve"> Βήματα διεργασίας SCRUM</t>
   </si>
@@ -165,7 +165,17 @@
         <family val="2"/>
         <charset val="161"/>
       </rPr>
-      <t xml:space="preserve">login</t>
+      <t xml:space="preserve">login </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">για να εχω προσβαση στο συστημα.</t>
     </r>
   </si>
   <si>
@@ -204,7 +214,7 @@
     <t xml:space="preserve">US04</t>
   </si>
   <si>
-    <t xml:space="preserve">Ως καθηγητης,θελω να εχω δυνατοτητα να βαζω βαθμολογια στους μαθητες που παρακολουθουν το μαθημα/μαθηματα που διδασκω.</t>
+    <t xml:space="preserve">Ως καθηγητης μαθηματος,θελω να εχω δυνατοτητα να βαζω βαθμολογια στους φοιτητες που παρακολουθουν το μαθημα.</t>
   </si>
   <si>
     <t xml:space="preserve">Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη "Δηλωση Βαθμολογιας" η οποια θα οδηγει τον καθηγητη στο περιβαλλον δηλωσης βαθμολογιας φοιτητων.</t>
@@ -231,19 +241,19 @@
     <t xml:space="preserve">US07</t>
   </si>
   <si>
-    <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα να προσθετω/αφαιρω μαθημα.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη "Επεξεργασιας Μαθηματων” η οποια θα οδηγει τον διαχειριστη στο περιβαλλον διαχειρησης μαθηματων.Εκει θα υπαρχει,εκτος αλλων, κουμπι “Προσθηκη Μαθηματος” το οποιο θα τον οδηγησει στην φορμα για την προσθηκη του μαθηματος.</t>
+    <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα να προσθετω/αφαιρω μαθημα για να μπορω να δηλωνω καινουρια μαθηματα και να αφαιρω μη-διδακταια μαθηματα.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη "Επεξεργασιας Μαθηματων” η οποια θα οδηγει τον διαχειριστη στο περιβαλλον διαχειρησης μαθηματων.</t>
   </si>
   <si>
     <t xml:space="preserve">US08</t>
   </si>
   <si>
-    <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα να δηλωνω ημερομηνια και ωρα δηλωσης μαθηματων.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Ορισμος Δηλωσης Μαθηματων” η οποια τον οδηγει στην φορμα οπου,εκτος αλλων,θα υπαρχει πεδιο “Ημερομηνια Εναρξης Δηλωσης Μαθηματων”.</t>
+    <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα να οριζω δηλωση μαθηματων.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Ορισμος Δηλωσης Μαθηματων” η οποια τον οδηγει στο περιβαλλον ορισμου δηλωσης μαθηματων.</t>
   </si>
   <si>
     <t xml:space="preserve">US09</t>
@@ -252,7 +262,35 @@
     <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα να δηλωνω τις ομαδες στις οποιες θα χωριζονται οι φοιτητες και τις ωρες για καθε ομαδα στις οποιες οι φοιτητες που ανηκουν στην ομαδα θα πρεπει να δηλωσουν τα μαθημα.</t>
   </si>
   <si>
-    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Ορισμος Δηλωσης Μαθηματων” η οποια θα τον οδηγει στην φορμα οπου,εκτος αλλων,θα υπαρχει κουμπι “Προσθηκη Ομαδας”με το οποιο δηλωνη την ομαδα με βαση καποια κριτιρια.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Ορισμος Δηλωσης Μαθηματων” </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">η οποια τον οδηγει στο περιβαλλον ορισμου δηλωσης μαθηματων οπου </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">θα υπαρχει κουμπι “Προσθηκη Ομαδας”με το οποιο δηλωνη την ομαδα με βαση καποια κριτιρια.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">US10</t>
@@ -270,7 +308,7 @@
     <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα να δημιουργω χ αριθμο κωδικων για χ φοιττηες.</t>
   </si>
   <si>
-    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Φοιτητες” η οποια θα τον οδηγει στο περιβαλλον διαχειρησης φοιτητων.Εκει,εκτος αλλων,θα υπαρχει κουμπι “Δημιουργια Κωδικων Φοιτητων” το οποιο θα οδηγει τον διαχειριστη στη φορμα οπου θα δηλωνει,εκτος αλλων,εναν αριθμο – τον αριθμο των κωδικων που θελει να δημιουργησει και το κουμπι “Δημιουργια” το οποιο θα δημιουργει και αποθηκευει ολους τους κωδικους</t>
+    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Φοιτητες” η οποια θα τον οδηγει στο περιβαλλον διαχειρησης φοιτητων.Εκει,εκτος αλλων,θα υπαρχει κουμπι “Δημιουργια Κωδικων Φοιτητων” με το οποιο θα μπορει να δημιουργει παραμετρικο αριθμο φοιτητων</t>
   </si>
   <si>
     <t xml:space="preserve">US12</t>
@@ -294,10 +332,10 @@
     <t xml:space="preserve">US14</t>
   </si>
   <si>
-    <t xml:space="preserve">Ως διαχειριστης,θελω(μετα τη δηλωση μαθηματος με εργαστηριο) να εχω δυνατοτητα προσθεσης/αφαιρεσης εργαστηριων.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Επεξεργασιας Εργαστηριων” οπου,εκτος αλλων,θα υπαρχει δυνατοτητα προσθηκης/αφαιρεσης εργαστηριων.</t>
+    <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα προσθεσης/αφαιρεσης εργαστηριων.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Χειρισμος Εργαστηριων” οπου,εκτος αλλων,θα υπαρχει δυνατοτητα προσθηκης/αφαιρεσης εργαστηριων.</t>
   </si>
   <si>
     <t xml:space="preserve">US15</t>
@@ -306,7 +344,7 @@
     <t xml:space="preserve">Ως καθηγητης που διδασκω καποιο εργαστηριο,θελω να εχω δυνατοτητα να προσθετω φοιτητες στο εργαστηριο.</t>
   </si>
   <si>
-    <t xml:space="preserve">Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Τα εργαστηρια μου” οπου,διαλεγωντας το εργαστηριο,θα του ανοιγει φορμα οπου,εκτος αλλων,θα υπαρχει δυνατοτηα προσθηκη φοιτητη.</t>
+    <t xml:space="preserve">Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Τα εργαστηρια μου” οπου,διαλεγωντας το εργαστηριο,θα του ανοιγει φορμα οπου,εκτος αλλων,θα υπαρχει δυνατοτηα προσθηκης φοιτητη.</t>
   </si>
   <si>
     <t xml:space="preserve">US16</t>
@@ -325,6 +363,15 @@
   </si>
   <si>
     <t xml:space="preserve">Οταν ο φοιτητης θα μπαινει στο συστημα και εφοσον θα ανηκει στην καταλληλη ομαδα,θα υπαρχει επιλογη “Δηλωση Μαθηματων” η οποια θα τον οδηγει στο περιβαλλον δηλωσης μαθηματων οπου θα μπορει να επιλεγει τα μαθηματα και εργαστηρια τα οποια θελει να παρακολουθηση.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως καθηγητης που διδασκω καποιο μαθημα,θελω να εχω δυνατοτητα να οριζω τον αλγοριθμο,βαση του οποιου θα υπολογιζεται ο τελικος βαθμος των φοιτητων στο μαθημα.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Τα μαθηματα μου” οπου,διαλεγωντας το μαθημα,θα του ανοιγει φορμα οπου,εκτος αλλων,θα μπορει να δηλωνει ποσοστα συμμετοχης διαφορων βαθμων του μαθηματος στον τελικο βαθμο(πχ,εργαστηριο,θεωρια και εργασιας)</t>
   </si>
 </sst>
 </file>
@@ -505,7 +552,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -600,10 +647,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -697,7 +740,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.41"/>
@@ -930,11 +973,11 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.71"/>
@@ -1078,7 +1121,7 @@
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
     </row>
-    <row r="12" customFormat="false" ht="48.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="61.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
         <v>61</v>
       </c>
@@ -1176,7 +1219,7 @@
       <c r="B19" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="22" t="s">
         <v>84</v>
       </c>
       <c r="D19" s="23"/>
@@ -1186,79 +1229,85 @@
       <c r="A20" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="25" t="s">
         <v>87</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="23"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
+    <row r="21" customFormat="false" ht="65.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>90</v>
+      </c>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="46.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="23"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="23"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="23"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="23"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="23"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="23"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/UserStories/arslan/User_Stories.xlsx
+++ b/UserStories/arslan/User_Stories.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Διεργασία" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Product backlog Pithia" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Acceptance criteria" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="273">
   <si>
     <t xml:space="preserve"> Βήματα διεργασίας SCRUM</t>
   </si>
@@ -146,6 +147,15 @@
     <t xml:space="preserve">US02</t>
   </si>
   <si>
+    <t xml:space="preserve">Ως logout χρηστης θέλω να κάνω login για να εχω προσβαση στο συστημα.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Στο UI εισάγω τα διαπιστευτήριά μου (username, passw) με τα οποία, μετά τον έλεγχο, εισάγομαι στην εφαρμογή</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US03</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -165,213 +175,4314 @@
         <family val="2"/>
         <charset val="161"/>
       </rPr>
-      <t xml:space="preserve">login </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+      <t xml:space="preserve">logout</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Πατώντας "Logout" εξέρχομαι από την εφαρμογή και ενημερώνεται ο λογαριασμός μου</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως καθηγητης μαθηματος,θελω να εχω δυνατοτητα να βαζω βαθμολογια στους φοιτητες που παρακολουθουν το μαθημα.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη "Δηλωση Βαθμολογιας" η οποια θα οδηγει τον καθηγητη στο περιβαλλον δηλωσης βαθμολογιας φοιτητων.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα να προσθετω και να αφαιρω καθηγητη/-ες απο το συστημα.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη "Επεξεργασια Καθηγητων" η οποια θα τον οδηγει στο περιβαλλον διαχειρισης καθηγητων.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως &lt;ταυτοποιημένος χρήστης &gt;, θέλω να &lt;βλεπω τη δηλωσή μου … &gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Πατώντας την επιλογή  Δήλωση στο συστημα,θα μπορέι ο ταυτοποιήμενος χρήστης να δει τα μαθήματα που δήλωσε.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα να προσθετω/αφαιρω μαθημα στο ΠΣ για να μπορω να δηλωνω καινουρια μαθηματα και να αφαιρω μη-διδακταια μαθηματα.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη "Επεξεργασιας Μαθηματων” η οποια θα οδηγει τον διαχειριστη στο περιβαλλον διαχειρησης μαθηματων.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα να οριζω δηλωση μαθηματων.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Ορισμος Δηλωσης Μαθηματων” η οποια τον οδηγει στο περιβαλλον ορισμου δηλωσης μαθηματων.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα να δηλωνω τις ομαδες στις οποιες θα χωριζονται οι φοιτητες στη δηλωση μαθηματων και τις ωρες για καθε ομαδα.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Ορισμος Δηλωσης Μαθηματων” η οποια τον οδηγει στο περιβαλλον ορισμου δηλωσης μαθηματων οπου θα υπαρχει κουμπι “Προσθηκη Ομαδας”με το οποιο δηλωνη την ομαδα με βαση καποια κριτιρια.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως διαχειριστης,θελω μετα την προσθηκη των ομαδων για τη δηλωση μαθηματων να βλεπω τον αριθμο των φοιτητων που ανηκουν σε καθε ομαδα.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο διαχειριστης ολοκληρωση την προσθηκη της ομαδας,θα του εμφανιζεται ο αριθμος των φοιτητων που ανηκουν στην ομαδα.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα να δημιουργω χ αριθμο κωδικων για χ φοιττηες.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Φοιτητες” η οποια θα τον οδηγει στο περιβαλλον διαχειρησης φοιτητων.Εκει,εκτος αλλων,θα υπαρχει κουμπι “Δημιουργια Κωδικων Φοιτητων” με το οποιο θα μπορει να δημιουργει παραμετρικο αριθμο φοιτητων</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως χρηστης,θελω να εχω δυνατοτητα να αλλαζω τον κωδικο μου.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο χρηστης θα μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Ο λογαριασμος μου” η οποια θα τον οδηγει στην φορμα οπου θα μπορει,εκτος αλλων,να αλλαζει τον κωδικο του.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως φοιτητης,θελω να εχω δυνατοτητα να βλεπω την τρεχουσα βαθμολογια μου στα μαθηματα.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο φοιτητης θα μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Η βαθμολογια μου” η οποια θα οδηγει τον φοιτητη στη λιστα των μαθηματων που δηλωσε και θα εμφανιζει τις αντιστοιχες βαθμολογιες αυτων.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα προσθεσης/αφαιρεσης εργαστηριων.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Χειρισμος Εργαστηριων” οπου,εκτος αλλων,θα υπαρχει δυνατοτητα προσθηκης/αφαιρεσης εργαστηριων.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως καθηγητης που διδασκω καποιο εργαστηριο,θελω να εχω δυνατοτητα να προσθετω φοιτητες στο εργαστηριο.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Τα εργαστηρια μου” οπου,διαλεγωντας το εργαστηριο,θα του ανοιγει φορμα οπου,εκτος αλλων,θα υπαρχει δυνατοτηα προσθηκης φοιτητη.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως καθηγητης που διδασκω καποιο εργαστηριο,θελω να εχω δυνατοτητα να προσθετω/αφαιρω απουσιες στους φοιτιτες που παρακολουθουν το εργαστηριο</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Τα εργαστηρια μου” οπου,διαλεγωντας το εργαστηριο,θα του ανοιγει φορμα οπου,εκτος αλλων,θα υπαρχει λιστα φοιτητων και κουμπι “Αυξηση απουσιων” και κουμπι “Μειωση απουσιων” διπλα σε καθε φοιτητη.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως φοιτητης,θελω να εχω δυνατοτητα να δηλωνω μαθηματα κατα την δηλωσω των μαθηματων.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο φοιτητης θα μπαινει στο συστημα και εφοσον θα ανηκει στην καταλληλη ομαδα,θα υπαρχει επιλογη “Δηλωση Μαθηματων” η οποια θα τον οδηγει στο περιβαλλον δηλωσης μαθηματων οπου θα μπορει να επιλεγει τα μαθηματα και εργαστηρια τα οποια θελει να παρακολουθηση.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως καθηγητης που διδασκω καποιο μαθημα,θελω να εχω δυνατοτητα να οριζω τον αλγοριθμο βαση του οποιου θα υπολογιζεται ο τελικος βαθμος των φοιτητων στο μαθημα.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Τα μαθηματα μου” οπου,διαλεγωντας το μαθημα,θα του ανοιγει φορμα οπου,εκτος αλλων,θα μπορει να δηλωνει ποσοστα συμμετοχης διαφορων βαθμων του μαθηματος στον τελικο βαθμο(πχ,εργαστηριο,θεωρια και εργασιας)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως καθηγητης,θελω να εχω δυνατοτητα να στελνω αιτηματα/μηνυματα στον/στους διαχειριστες,για να αλλαζω στοιχεια των μαθηματων που διδασκω.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Μηνυμα Προς Διαχειριστη” η οποιο θα τον οδηγει στη φορμα αιτησης προς τον διαχειριστη.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως καθηγητης,θελω να εχω δυνατοτητα αλλαγης βαθμου ενος φοιτητη που παρακολουθη το μαθημα μου.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη "Δηλωση Βαθμολογιας" η οποια θα οδηγει τον καθηγητη στο περιβαλλον δηλωσης βαθμολογιας φοιτητων οπου θα υπαρχει το κουμπι Αλλαγη Βαθμολογιας η οποια θα επιτρεπει στον καθηγητη να αλλαζει το βαθμο.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα να οριζω το προγραμμα για το τρεχον εξαμηνο.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Επεξεργασια Προγραμματος” η οποιο θα οδηγει τον διαχειριστη στον πινακα του τρεχουν προγραμματος οπου μπορει να επεξεργαζεται το προγραμμα.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα να αλλαζω το προγραμμα των μαθηματων.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Επεξεργασια Προγραμματος” η οποιο θα οδηγει τον διαχειριστη στον πινακα του τρεχουν προγραμματος οπου μπορει να αφαιρει η να προσθετει μαθηματα.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint backlog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User stories ank Acceptance criteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User story</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Κριτήρια αποδοχής</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="161"/>
       </rPr>
-      <t xml:space="preserve">για να εχω προσβαση στο συστημα.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Στο UI εισάγω τα διαπιστευτήριά μου (username, passw) με τα οποία, μετά τον έλεγχο, εισάγομαι στην εφαρμογή</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US03</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Ως ταυτοποιημένος χρήστης θέλω να κάνω </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="161"/>
       </rPr>
-      <t xml:space="preserve">logout</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Πατώντας "Logout" εξέρχομαι από την εφαρμογή και ενημερώνεται ο λογαριασμός μου</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ως καθηγητης μαθηματος,θελω να εχω δυνατοτητα να βαζω βαθμολογια στους φοιτητες που παρακολουθουν το μαθημα.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη "Δηλωση Βαθμολογιας" η οποια θα οδηγει τον καθηγητη στο περιβαλλον δηλωσης βαθμολογιας φοιτητων.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα να προσθετω και να αφαιρω καθηγητη/-ες απο το συστημα.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη "Προσθηκη/Αφαιρεση Καθηγητη" η οποια θα τον οδηγει στο περιβαλλον διαχειρισης καθηγητων.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ως &lt;ταυτοποιημένος χρήστης &gt;, θέλω να &lt;βλεπω τη δηλωσή μου … &gt;.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Πατώντας την επιλογή  Δήλωση στο συστημα,θα μπορέι ο ταυτοποιήμενος χρήστης να δει τα μαθήματα που δήλωσε.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα να προσθετω/αφαιρω μαθημα για να μπορω να δηλωνω καινουρια μαθηματα και να αφαιρω μη-διδακταια μαθηματα.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη "Επεξεργασιας Μαθηματων” η οποια θα οδηγει τον διαχειριστη στο περιβαλλον διαχειρησης μαθηματων.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα να οριζω δηλωση μαθηματων.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Ορισμος Δηλωσης Μαθηματων” η οποια τον οδηγει στο περιβαλλον ορισμου δηλωσης μαθηματων.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα να δηλωνω τις ομαδες στις οποιες θα χωριζονται οι φοιτητες και τις ωρες για καθε ομαδα στις οποιες οι φοιτητες που ανηκουν στην ομαδα θα πρεπει να δηλωσουν τα μαθημα.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Ορισμος Δηλωσης Μαθηματων” </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">η οποια τον οδηγει στο περιβαλλον ορισμου δηλωσης μαθηματων οπου </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">θα υπαρχει κουμπι “Προσθηκη Ομαδας”με το οποιο δηλωνη την ομαδα με βαση καποια κριτιρια.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">US10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ως διαχειριστης,θελω μετα την προσθηκη των ομαδων για τη δηλωση μαθηματων να βλεπω τον αριθμο των φοιτητων που ανηκουν σε καθε ομαδα.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Οταν ο διαχειριστης ολοκληρωση την προσθηκη της ομαδας,θα του εμφανιζεται ο αριθμος των φοιτητων που ανηκουν στην ομαδα.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα να δημιουργω χ αριθμο κωδικων για χ φοιττηες.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Φοιτητες” η οποια θα τον οδηγει στο περιβαλλον διαχειρησης φοιτητων.Εκει,εκτος αλλων,θα υπαρχει κουμπι “Δημιουργια Κωδικων Φοιτητων” με το οποιο θα μπορει να δημιουργει παραμετρικο αριθμο φοιτητων</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ως φοιτητης,θελω να εχω δυνατοτητα να αλλαζω τον κωδικο μου.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Οταν ο φοιτητης θα μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Ο λογαριασμος μου” η οποια θα τον οδηγει στην φορμα οπου θα μπορει,εκτος αλλων,να αλλαζει τον κωδικο του.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ως φοιτητης,θελω να εχω δυνατοτητα να βλεπω την τρεχουσα βαθμολογια μου στα μαθηματα.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Οταν ο φοιτητης θα μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Η βαθμολογια μου” η οποια θα οδηγει τον φοιτητη στη λιστα των μαθηματων που δηλωσε και θα εμφανιζει τις αντιστοιχες βαθμολογιες αυτων.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα προσθεσης/αφαιρεσης εργαστηριων.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Χειρισμος Εργαστηριων” οπου,εκτος αλλων,θα υπαρχει δυνατοτητα προσθηκης/αφαιρεσης εργαστηριων.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ως καθηγητης που διδασκω καποιο εργαστηριο,θελω να εχω δυνατοτητα να προσθετω φοιτητες στο εργαστηριο.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Τα εργαστηρια μου” οπου,διαλεγωντας το εργαστηριο,θα του ανοιγει φορμα οπου,εκτος αλλων,θα υπαρχει δυνατοτηα προσθηκης φοιτητη.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ως καθηγητης που διδασκω καποιο εργαστηριο,θελω να εχω δυνατοτητα να προσθετω απουσιες στους φοιτιτες που παρακολουθουν το εργαστηριο</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Τα εργαστηρια μου” οπου,διαλεγωντας το εργαστηριο,θα του ανοιγει φορμα οπου,εκτος αλλων,θα υπαρχει λιστα φοιτητων και κουμπι “Αυξηση απουσιων” διπλα σε καθε φοιτητη.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ως φοιτητης,θελω να εχω δυνατοτητα να δηλωνω μαθηματα κατα την δηλωσω των μαθηματων.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Οταν ο φοιτητης θα μπαινει στο συστημα και εφοσον θα ανηκει στην καταλληλη ομαδα,θα υπαρχει επιλογη “Δηλωση Μαθηματων” η οποια θα τον οδηγει στο περιβαλλον δηλωσης μαθηματων οπου θα μπορει να επιλεγει τα μαθηματα και εργαστηρια τα οποια θελει να παρακολουθηση.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ως καθηγητης που διδασκω καποιο μαθημα,θελω να εχω δυνατοτητα να οριζω τον αλγοριθμο,βαση του οποιου θα υπολογιζεται ο τελικος βαθμος των φοιτητων στο μαθημα.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Τα μαθηματα μου” οπου,διαλεγωντας το μαθημα,θα του ανοιγει φορμα οπου,εκτος αλλων,θα μπορει να δηλωνει ποσοστα συμμετοχης διαφορων βαθμων του μαθηματος στον τελικο βαθμο(πχ,εργαστηριο,θεωρια και εργασιας)</t>
+      <t xml:space="preserve">Logoout χρηστης μπαινει στο συστημα.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Δεδομένου </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">οτι ειμαι logout και ειμαι στην φορμα εισαγωγης,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Όταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">βαζω το ονομα χρηστη και τον κωδικο μου</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">παταω το κουμπι Συνδεση,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τότε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα μου επιτρεπει προσβαση</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF00A933"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">και μου εμφανιζει το παραθυρο εφαρμογης με το μενου επιλογων.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως ταυτοποιημένος χρήστης θέλω να κάνω logout.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Συνδεδεμενος χρηστης βγαινει απο το συστημα.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Δεδομένου </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">οτι ειμαι συνδεδεμενος στο συστημα,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Όταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">παταων στο μενου το κουμπι Logout</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">παταω “Ναι” οταν το συστημα με ρωταει αν θελω να βγω,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τότε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα με αποσυνδεει και με πηγαινει στη φορμα εισαγωγης.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Καθηγητης βαζει βαθμολογια στους φοιτητες.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Δεδομένου </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">οτι ειμαι συνδεδεμενος στο συστημα ως καθηγητης</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Όταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">παταω στο μενου το κουμπι Δηλωση Βαθμολογιας</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τότε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα μου ανοιγει φορμα δηλωσης βαθμολογιας η οποιο περιεχει μια λιστα της μορφης [Ονομα Μαθηματος][Τυπος(Εργ. Ή Θεω.)].</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">οταν επιλεγω το μαθημα για το οποιο θελω να δηλωσω τη βαθμολογια απο την λιστα των μαθηματων μου,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα φωρτωνει την λιστα ολων των φοιτητων που παρακολουθουν το μαθημα που επελεξα σε μορφη </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[Στοιαχεια φοιτητη][Input για τον βαθμο][Κουμπι Επιβεβαιωσης].</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">οταν βαζω στο [input] το βαθμο του φοιτητη</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">παταω το κουμπι Επιβεβαιωση</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF00A933"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> το συστημα μου εμφανιζει μηνυμα “Η βαθμολογια για τον φοιτητη</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> [στοιχεια του φοιτητη]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> καταχωρηθηκε.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Καθηγητης αλλαζει βαθμολογια σε φοιτητη.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα με καθοδηγει στο περιβαλλον δηλωσης βαθμολογιας φοιτητων οπου θα υπαρχει επιλογη [Αλλαγη Βαθμολογιας]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">πατησω το κουμπι Αλλαγη Βαθμολογιας,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει τη λιστα των φοιτητων που πηραν ηδη βαθμο με τη μορφη [ΑΜ][Ονομα Φοιτητη][input με τον τρεχον Βαθμο][Κουμπι Αλλαγη]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">βαλω καινουριο βαθμο στο input του βαθμου</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">πατησω το κουμπι [Αλλαγη]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [Αλλαγη Βαθμου του][ΑΜ][Ονομα Φοιτητη][Απο][Προηγουμενος Βαθμος][Σε][Καινουριος Βαθμος] και δυο κουμπια [Κουμπι Καταχωρηση][Ακυρωση]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">πατησω το κουμπι Αλλαγη,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [ΑΜ][Ονομα Φοιτητη][Καινουριους βαθμοθς =][Καινουριος Βαθμος]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα να προσθετω και να αφαιρω καθηγητη απο το συστημα.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Ο Διαχειριστης αφαιρη καθηγητη.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Δεδομένου </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">οτι ειμαι συνδεδεμενος στο συστημα ως διαχειριστης,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Όταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">παταω στο μενου την επιλογη “Επεξεργασιας Καθηγητων”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τότε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα μου ανοιγε την φορμα επεξεργασιας καθηγητων στην οποια υπαρχει (1) η λιστα των υπαρχοντων καθηγητων σε μορφη </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[Ονομα Καθηγητη][Κουμπι Διαγραφη][Κουμπι Επεξεργασιας]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> και (2)φορμα με τα πεδια για την προσθηκη καινουριου καθηγητη.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> πατησω το κουμπι Διαγραφη διπλα σε καποιον υπαρχοντο καθηγητη</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> το συστημα ζηταει να επιβεβαιωσω την διαγραφη του καθηγητ με μηνυμα της μορφης </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[Θελετε να διαγραψετε καθηγητη][Ονομα Καθηγητη]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> με δυο κουμπια </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[Ναι]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> και </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[Οχι]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> οταν πατησω το κουμπι </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[Ναι]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> το συστημα εμφανιζει μηνυμα της μορφης </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[Ο\Η καθηγητης/ρια] [Ονομα Καθηγητη] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">αφαιρεθηκε επιτυχως.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Ο Διαχειριστης προσθετη καθηγητη.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τότε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα μου ανοιγε την φορμα επεξεργασιας καθηγητων,στην οποια υπαρχει (1) η λιστα των υπαρχοντων καθηγητων σε μορφη </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[Ονομα Καθηγητη][Κουμπι Διαγραφη][Επεξεργασιας]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> και (2)φορμα με τα πεδια για την προσθηκη καινουριου καθηγητη.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> γεμισω την φορμα – ονομα καθηγητη,επιθετο καθηγητη,ημ. Γεννησης,προσωπικη ιστοσελιδα,εμπιρεια σε χρονια,email,κωιδκος καθηγητη</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> πατησω το κουμπι προσθηκη,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> το συστημα εμφανιζει μηνυμα της μορφης </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[Ο\Η καθηγητης/ρια][Ονομα Καθηγητη] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">προστεθηκε επιτυχως.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Αφαιρεση υπαρχοντος μαθηματος</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Δεδομένου </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">οτι ειμαι συνδεδεμενος στο συστημα ως διαχεριστης,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Όταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">παταων στο μενου το κουμπι Επεξεργασιας Μαθηματων</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα μου ανοιγει το περιβαλλον επεξεργασιας μαθηματων οπου υπαρχει (1) λιστα με τα υπαρχοντα μαθηματα σε μορφη </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[Ονομα Μαθηματος][Διαγραφη][Επεξεργασιας]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> και (2) φορμα προσθηκης καινουριου μαθηματος.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">πατησω το κουμπι Διαγραφη διπλα σε καποιο μαθηματα,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> το συστημα εμφανιζει μηνυμα της μορφης </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[Θελετε να διαγραψετε το μαθημα][Ονομα Μαθηματος]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> και δυο κουμπια </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[Ναι]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> και </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[Οχι]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και οταν</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> πατησω το κουμπι [Ναι] για επιβεβαιωση,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> το συστημα εμφανιζει μηνυμα της μορφης </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[Ονομα Μαθηματος]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> αφαιρεθηκε επιτυχως</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Προσθηκη καινουριου μαθηματος</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> γεμισω την φορμα – ονομα μαθηματος,εξαμηνο,αν εχει εργαστηριακο μερος,κωδικος μαθηματος,Ονομα καθηγητη που διδασκει την θεωρια,αν ειναι μαθημα κατευθυνσης</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> πατησω το κουμπι προσθηκη</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> το συστημα εμφανιζει μηνυμα της μορφης </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[Ονομα Μαθηματος]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> προστεθηκε επιτυχως.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">US08 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">ο διαχειριστης οριζε τη δηλωση μαθηματων.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Όταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">παταω στο μενου την επιλογη “Ορισμος Δηλωσης Μαθηματων”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τότε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα με καθοδηγει στην φορμα οριζμου παραμετρων δηλωσης μαθηματων.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> γεμισω την φορμα – μαθηματα που θα διδασκονται,τις ομαδες φοιτητων,ημερομηνια εναρξης,ημερομηνια ληξης,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> πατησω το κουμπι επιβεβαιωση</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[Στοιχεια Δηλωσης]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> και δυο κουμπια </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[Επιβεβαιωση] και [Αλλαγη Δηλωσης]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> πατησω το κουμπι Επιβεβαιωση</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[Η φορμα καταχωρθηκε]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Ο διαχειριστης παραγει εναν αριθμο κωδικων.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Δεδομένου </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">οτι ειμαι συνδεδεμενος ως διαχειριστης,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Όταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">παταων στο μενου το κουμπι Φοιτητες,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα με καθοδηγει στο περιβαλλον επεξεργασιας φοιτητων οπου υπαρχει φορμα παραγωγης κωδικων φοιτητων με πεδια ετος,αριθμος κωδικων φοιτητων,prefix και το κουμπι Παραγωγη</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">γεμισω τα πεδια ετος,αριθμος κωδικων φοιτητων,prefix </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">πατησω το κουμπι Παραγωγη,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [χ κωδικοι δημιουργηθηκαν][διαδρομη για το ονομα αρχειου]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Φοιτητης αλλαζει τον κωδικο του.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Δεδομένου </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">οτι ειμαι συνδεδεμενος στο συστημα ως χρηστης,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Όταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">παταω στο μενου την επιλογη “Ο λογαριαμος μου”,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τότε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα με καθοδηγει στο περιβαλλον επεξεργασιας του λογαριαμου μου οπου υπαρχει φορμα με πεδια Νεος Κωδικος και Επαναληψη Κωδικου και το κουμπι Αποθηκευση Κωδικου.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">γεμισω τα πεδια Νεος Κωδικος και Επαναληψη Κωδικου με το νεο μου κωδικο,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">πατησω το κουμπι Αποθηκευση,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [Ο κωδικος αλλαξε],με κανει logout και μου ζηταει να ξαναμπω με τον καινουριο κωδικο.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως φοιτητης,θελω να εχω δυνατοτητα να βλεπω την τρεχουσα βαθμολογια μου στα μαθηματα. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Φοιτητης βλεπει την τρεχουσα βαθμολογια του.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Δεδομένου </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">οτι ειμαι συνδεδεμενος στο συστημα ως φοιτητης,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Όταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">παταω στο μενου την επιλογη “Η Βαθμολογια μου”,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τότε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα μου εμφανιζει ολα τα μαθηματα του ΠΣ και διπλα τη βαθμολογια τους</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα προσθεσης/αφαιρεσης εργαστηριων. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Διαχειριστης προσθετη εργαστηριο σε ενα μαθημα</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Όταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">παταω στο μενου την επιλογη “Χειρισμςο Εργαστηριων”,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τότε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα με καθοδηγει στο περιβαλλον επεξεργασιας εργαστηριων οπου υπαρχει φορμα με πεδια:κωδικος μαθηματος,ονομα τμηματος εργαστηριου,κωδικος καθηγητη και το κουμπι Προσθηκη Εργαστηριου</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">γεμισω τα πεδια κωδικος μαθηματος,ονομα τμηματος,κωδικος καθηγητη</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">πατησω το κουμπι Προσθηκη Εργαστηριου,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [Στοιχεια Εργαστηριου] και δυο κουμπια [Επιβεβαιωση] και [Αλλαγη Στοιχειων]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">πατησω το κουμπι Επιβεβαιωση,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [Στοιχεια Εργαστηριου][Αποθηκευθηκε επιτυχως].</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Διαχειριστης αφαιρη εργαστηριο σε ενα μαθημα</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τότε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα με καθοδηγει στο περιβαλλον επεξεργασιας εργαστηριων οπου υπαρχει λιστα με τα υπαρχοντα εργαστηρια της μορφης [Ονομα Μαθηματος][Ονομα Εργαστηριου][Κουμπι Διαγραφη][Κουμπι Επεξεργασια]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">πατησω το κουμπι Διαγραφη,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [Ονομα Μαθηματος][Ονομα Εργαστηριου][Κουμπι Διαγραφη][Κουμπι Ακυρωση]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [Ονομα Μαθηματος][Ονομα Εργαστηριου] Αφαιρεθηκε επιτυχως.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Καθηγητης Εργαστηριου προσθετη φοιτητη.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Δεδομένου </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">οτι ειμαι συνδεδεμενος στο συστημα ως καθηγητης,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Όταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">παταω στο μενου την επιλογη “Τα Εργαστηρια Μου”,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τότε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα με καθοδηγει στο περιβαλλον επεξεργασιας των εργαστηριων που διδασκω οπου υπαρχει λιστα με τα εργαστηρια μου.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">επιλεξω ενα εργαστηριο απο την λιστα,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει παραθυρο με τα στοιχεια του εργαστηριου και μια φορμα με πεδια ΑΜ φοιτητη και κουμπι Προσθηκη Φοιτητη στο εργαστηριο.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">γεμισω το πεδιο ΑΜ και πατησω το κουμπι Προσθηκη Φοιτητη Στο Εργαστηριο,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [Στοιχεια Φοιτητη] [Κουμπι Προσθηκη] [Κουμπι Ακυρωση]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">πατησω το κουμπι Προσθηκη,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [Στοιχεια Φοιτητη] προστεθηκε επιτυχως.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως καθηγητης που διδασκω καποιο εργαστηριο,θελω να εχω δυνατοτητα να προσθετω/αφαιρω απουσιες στους φοιτιτες που παρακολουθουν το εργαστηριο </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Καθηγητης Εργαστηριου αυξανη τις απουσιες καποιου φοιτητη.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει παραθυρο με τα στοιχεια του εργαστηριου οπου υπαρχει μια λιστα με ολους του φοιτητες της μορφης [ΑΜ][Ονομα Φοιτητη][Συνολο Απουσιων][Κουμπι Αυξηση Απουσιων][Μειωση Απουσιων].</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">πατησω το κουμπι Αυξηση Απουσιων σε εναν φοιτητη,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [ΑΜ][Ονομα Φοιτητη][Κουμπι Αυξηση Απουσιων][Ακυρωση]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">πατησω το κουμπι Αυξηση Απουσιων,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [ΑΜ][Ονομα Φοιτητη][Συνολο Απουσιων] Απουσιες Αυξηθηκαν κατα ενα.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Καθηγητης Εργαστηριου μειωνει τις απουσιες καποιου φοιτητη.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει παραθυρο με τα στοιχεια του εργαστηριου οπου υπαρχει μια λιστα με ολους του φοιτητες της μορφης [ΑΜ][Ονομα Φοιτητη][Συνολο Απουσιων][Κουμπι Αυξηση Απουσιων][Κουμπι Μειωση Απουσιων].</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">πατησω το κουμπι Μειωση Απουσιων,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [ΑΜ][Ονομα Φοιτητη][Κουμπι Μειωση Απουσιων][Ακυρωση]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [ΑΜ][Ονομα Φοιτητη][Συνολο Απουσιων] Απουσιες Μειωθηκαν κατα ενα.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως φοιτητης,θελω να εχω δυνατοτητα να δηλωνω μαθηματα κατα την δηλωσω των μαθηματων. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Φοιτητης δηλωνει μαθηματα κατα την περιοδο δηλωσης μαθηματων.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Δεδομένου</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> οτι ειναι ενεργη η περιοδος δηλωσης μαθηματων,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> βαζω τον κωδικο μου και το ονομα χρηστη στην φορμα της εισαγωγης</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα μου επιτρεπει να μπω εαν εχω δικαιωμα να δηλωνω μαθηματα εκεινη την ωρα</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">μου ανηγει την φορμα δηλωσης μαθηματων με τη λιστα των μαθηματων που μπορω να δηλωσω οπου διπλα στα μαθηματα θεωριας υπαρχει ενα checkbox [Θελω Να Παρακολουθησω],ενω διπλα στα μαθηματα εργαστηριων η λιστα των εργαστηριων με τη μορφη [Ονομα Εργαστηριου][Ωρα][Ελευθερες θεσεις\Συνολικες Θεσεις][Κουμπι Επιβεβαιωσης].Και ενα κουμπι “Τελικη Υποβολη”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">επιλεγω ενα μαθημα θεωριας</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">αυτο μπαινει απευθειας στη δηλωση μου.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">επιλεγω ενα εργαστηριο απο την λιστα </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">παταω το κουμπι Επιβεβαιωση,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το εργαστηριο αυτο μπαινει απευθειας στη δηλωση μου και κραταω μια απο τις θεσεις.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">παταω το κουμπι “Τελικη Υποβολη”,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα υποβαλη τη δηλωση μου και με αποσυνδεει απο το συστημα.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως καθηγητης που διδασκω καποιο μαθημα,θελω να εχω δυνατοτητα να οριζω τον αλγοριθμο βαση του οποιου θα υπολογιζεται ο τελικος βαθμος των φοιτητων στο μαθημα. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Ο καθηγητης οριζει τον αλγοριθμο υπολογισμου του τελικου βαθμου.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Δεδομένου </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">οτι ειμαι συνδεδεμενος στο συστημα ως καθηγητης,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">επιλεγω απο το μενου την επιλογη Τα μαθηματα μου</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα με καθοδηγει στο περιβαλλον επεξεργασιας των μαθηματων μου οπου υπαρχει μια λιστα με τα μαθηματα που διδασκω και μια φορμα με πεδια:[Input][Label Ποσοστο συμμετοχης Θεωριας][Λιστα με τιμες απο 0% - 100%],[input][Label Ποσοστο συμμετοχης εργαστηριου][Λιστα με τιμες απο 0% εως 100%] και [Κουμπι Αποθηκευση]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">διαλεξω καποιο μαθηματα απο τη λιστα</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">συμπληρωσω το input για το ποσοστο συμμετοχης θεωριας </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">συμπληρωσω το input για το ποσοστο συμμετοχης εργαστηριου</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [Καινουριος Αλγοριθμος Υπολογισμου Τελικου Βαθμου][χ% * βαθμος θεωριας]+[y%*βαθμος εργαστηριου][Κουμπι Αποθηκευση][Κουμπι Ακυρωση]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">πατησω το κουμπι Αποθηκευση,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα αποθηκευει τον καινουριο αλγοριθμο.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Ο καθηγητης στελνει αιτημα/μηνυμα στον διαχειριστη.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">επιλεγω απο το μενου την επιλογη Μηνυμα Προς Διαχειριστη,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα με καθοδηγει στην φορμα αποστολης μηνυματος προς τον διαχειριστη της μορφη [Label – Τιτλος][Text Field τιτλου] [Label – Μηνυμα Προς Διαχειριστη][Textarea Σωμα του μηνυματος][Κουμπι Αποστολη]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">γεμισω το σωμα του μηνυματος και τον τιτλο</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">πατησω το κουμπι Αποστολη,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [Κωδικος Μηνυματος][Τιτλος Μηνυματος] Σταλθηκε Επιτυχως.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">US21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ως διαχειριστης,θελω να εχω δυνατοτητα να οριζω το προγραμμα για το τρεχον εξαμηνο. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Ο διαχειριστης οριζει το προγραμμα.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Δεδομένου </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">οτι ειμαι συνδεδεμενος στο συστημα ως διαχειριστης,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">επιλεγω απο το μενου την επιλογη “Επεξεργασια Προγραμματος”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει εναν πινακα με 7 στηλες(τις μερες της εβδομαδας) και ν γραμμες οι οιποιες ειναι χωριζμενες σε χ κομματια οπου το καθε κομματι δηλωνει ξεχωριστο εξαμηνο και καθε γραμμη του κομματιου δηλωνει μαθημα του εξαμηνου και ειναι της μορφης [Ωρα][Ονομα Μαθηματος].Και διπλα απο τον πινακα υπαρχει μια λιστα με μαθηματα τα οποια ακομη δεν υπαρχουνε στο προγραμμα.Και κατω ενα κουμπι Αποθηκευση</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">κατω drag-and-drop τα μαθηματα απο την λιστα στον πινακα,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα διαγραφει αυτο το μαθημα απο τη λιστα των μαθηματων που δεν υπαρχουνε στο προγραμμα και το εμφανιζει στον πινακα.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">πατησω αποθηκευση,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα αποθηκευει το καινουριο προγραμμα.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">εμφανιζει μηνυμα της μορφης [Το προγραμμα Καταχωρηθηκε]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα να αλλαζω το προγραμμα για το τρεχον εξαμηνο.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">επιλεξω καποιο μαθημα απο τον πινακα των μαθηματων,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [Ονομα Μαθηματος][Αφαιρεση απο το προγραμμα και τοποθετηση στη λιστα μαθηματων]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">αφαιρει το μαθημα απο τον πινακα </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το τοποθετει στη διπλανη λιστα των μαθηματων τα οποια ακομη δεν εχουνε καταχωρηθει.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">μπορω,αξιοποιωντας το U21,να ξανατοποθετησω το μαθημα στο προγραμμα εκει που το θελω.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -382,7 +4493,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -483,28 +4594,99 @@
       <charset val="161"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="16"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
+      <sz val="16"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF00A933"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF00A933"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -514,7 +4696,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -552,7 +4746,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -609,52 +4803,84 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -682,7 +4908,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -710,14 +4936,14 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -740,7 +4966,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.41"/>
@@ -971,49 +5197,50 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="7.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="60.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="13" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="13" width="8.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="7.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="51.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="14" width="60.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="14" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="14" width="8.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="14" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="3" t="s">
+    <row r="1" s="15" customFormat="true" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" s="16" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
+    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" s="19" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="17"/>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="18"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="17" t="s">
         <v>37</v>
       </c>
@@ -1022,294 +5249,270 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
     </row>
     <row r="6" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
     </row>
     <row r="7" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-    </row>
-    <row r="8" customFormat="false" ht="89.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="48.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
     </row>
     <row r="9" customFormat="false" ht="64.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-    </row>
-    <row r="10" customFormat="false" ht="65.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="54.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-    </row>
-    <row r="11" customFormat="false" ht="56.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="38.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
     </row>
     <row r="12" customFormat="false" ht="61.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
     </row>
     <row r="13" customFormat="false" ht="35.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-    </row>
-    <row r="14" customFormat="false" ht="86.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="59" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
     </row>
     <row r="15" customFormat="false" ht="42.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
     </row>
     <row r="16" customFormat="false" ht="46.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
     </row>
     <row r="17" customFormat="false" ht="50.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
     </row>
     <row r="18" customFormat="false" ht="40.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-    </row>
-    <row r="19" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="23" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="65.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-    </row>
-    <row r="20" customFormat="false" ht="57.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="23" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="69.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
     </row>
     <row r="21" customFormat="false" ht="65.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
     </row>
     <row r="22" customFormat="false" ht="46.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="23"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="23"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="23"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="23"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
+      <c r="A22" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="75.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="54.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="23"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="23"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1319,4 +5522,1241 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A223" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D225" activeCellId="0" sqref="D225"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="21.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="69.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="22" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="38.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="24"/>
+    </row>
+    <row r="4" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="60.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="31"/>
+      <c r="B11" s="30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+    </row>
+    <row r="13" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="31"/>
+      <c r="B19" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="31"/>
+      <c r="B26" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="31"/>
+      <c r="B27" s="30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="31"/>
+      <c r="B28" s="30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="31"/>
+      <c r="B29" s="30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="31"/>
+      <c r="B38" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="31"/>
+      <c r="B39" s="30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="31"/>
+      <c r="B40" s="30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="31"/>
+      <c r="B54" s="30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="31" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="94.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="31"/>
+      <c r="B72" s="31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="31"/>
+      <c r="B73" s="30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="94.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B85" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="31"/>
+      <c r="B90" s="30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="31" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="31" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="31" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B97" s="33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="31"/>
+      <c r="B102" s="31" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="31"/>
+      <c r="B103" s="30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B107" s="33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="31"/>
+      <c r="B112" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="31" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B117" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="30" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="31"/>
+      <c r="B122" s="30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B124" s="33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="31"/>
+      <c r="B129" s="30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="31" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="31" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B135" s="29" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B136" s="30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="30" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="31" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B144" s="33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="30" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="31"/>
+      <c r="B149" s="30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="31" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="31" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="31" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B157" s="33" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B158" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B159" s="29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B160" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B161" s="30" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="31"/>
+      <c r="B162" s="30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B163" s="31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="94.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B164" s="31" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B165" s="31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B166" s="31" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B167" s="31" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B168" s="31" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B169" s="29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B170" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B171" s="30" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B172" s="30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B173" s="31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="94.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B174" s="31" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B175" s="31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B176" s="31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B177" s="31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B178" s="31" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B180" s="33" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B181" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B182" s="29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B183" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B184" s="31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B185" s="31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B186" s="31" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B187" s="31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B188" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B189" s="31" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B190" s="31" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B191" s="31" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B192" s="31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B193" s="31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B194" s="31" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B196" s="33" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B197" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B198" s="29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B199" s="31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B200" s="31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="132.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B201" s="31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B202" s="31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B203" s="31" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B204" s="31" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B205" s="31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B206" s="31" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B207" s="31" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B208" s="31" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B210" s="33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B211" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B212" s="29" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B213" s="31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B214" s="31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="94.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B215" s="31" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B216" s="31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B217" s="31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B218" s="31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="B220" s="33" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B221" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B222" s="29" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B223" s="31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B224" s="31" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B225" s="31" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B226" s="31" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B227" s="31" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B228" s="31" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B229" s="31" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B230" s="31" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B232" s="33" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B233" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B234" s="29" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B235" s="31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B236" s="31" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B237" s="31" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B238" s="31" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B239" s="31" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B240" s="31" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B241" s="31" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B242" s="31" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/UserStories/arslan/User_Stories.xlsx
+++ b/UserStories/arslan/User_Stories.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Διεργασία" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="274">
   <si>
     <t xml:space="preserve"> Βήματα διεργασίας SCRUM</t>
   </si>
@@ -150,7 +150,7 @@
     <t xml:space="preserve">Ως logout χρηστης θέλω να κάνω login για να εχω προσβαση στο συστημα.</t>
   </si>
   <si>
-    <t xml:space="preserve">Στο UI εισάγω τα διαπιστευτήριά μου (username, passw) με τα οποία, μετά τον έλεγχο, εισάγομαι στην εφαρμογή</t>
+    <t xml:space="preserve">Στο UI εισάγω τα διαπιστευτήριά μου (αριθμος μητρωου, κωδικος) με τα οποία, μετά τον έλεγχο, εισάγομαι στην εφαρμογή</t>
   </si>
   <si>
     <t xml:space="preserve">US03</t>
@@ -179,7 +179,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Πατώντας "Logout" εξέρχομαι από την εφαρμογή και ενημερώνεται ο λογαριασμός μου</t>
+    <t xml:space="preserve">Πατώντας "Logout",εξέρχομαι από την εφαρμογή.</t>
   </si>
   <si>
     <t xml:space="preserve">US04</t>
@@ -765,7 +765,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">το συστημα φωρτωνει την λιστα ολων των φοιτητων που παρακολουθουν το μαθημα που επελεξα σε μορφη </t>
+      <t xml:space="preserve">το συστημα φορτωνει την λιστα ολων των φοιτητων που παρακολουθουν το μαθημα που επελεξα σε μορφη </t>
     </r>
     <r>
       <rPr>
@@ -924,6 +924,30 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">Τότε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα μου ανοιγει φορμα δηλωσης βαθμολογιας η οποια περιεχει μια λιστα της μορφης [Ονομα Μαθηματος][Τυπος(Εργ. Ή Θεω.)].</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">Τοτε </t>
     </r>
     <r>
@@ -1078,7 +1102,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">πατησω το κουμπι Αλλαγη,</t>
+      <t xml:space="preserve">πατησω το κουμπι Καταχωρηση,</t>
     </r>
   </si>
   <si>
@@ -1102,7 +1126,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [ΑΜ][Ονομα Φοιτητη][Καινουριους βαθμοθς =][Καινουριος Βαθμος]</t>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [ΑΜ][Ονομα Φοιτητη][Καινουριους βαθμος =][Καινουριος Βαθμος]</t>
     </r>
   </si>
   <si>
@@ -2499,7 +2523,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">γεμισω τα πεδια Νεος Κωδικος και Επαναληψη Κωδικου με το νεο μου κωδικο,</t>
+      <t xml:space="preserve">γεμισω τα πεδια Νεος Κωδικος και Επαναληψη Κωδικου με το νεο μου κωδικο</t>
     </r>
   </si>
   <si>
@@ -2645,7 +2669,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">το συστημα μου εμφανιζει ολα τα μαθηματα του ΠΣ και διπλα τη βαθμολογια τους</t>
+      <t xml:space="preserve">το συστημα μου εμφανιζει ολα τα μαθηματα του ΠΣ και διπλα τη βαθμολογια που εχω για καθε μαθημα.</t>
     </r>
   </si>
   <si>
@@ -4493,7 +4517,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4600,12 +4624,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
@@ -4746,7 +4764,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4831,8 +4849,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -4840,10 +4858,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4859,27 +4873,27 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4966,7 +4980,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.41"/>
@@ -5199,8 +5213,8 @@
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5481,7 +5495,7 @@
       <c r="B25" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="19" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5531,1222 +5545,1222 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A223" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D225" activeCellId="0" sqref="D225"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A196" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A196" activeCellId="0" sqref="A196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="21.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="69.89"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="22" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="21" width="21.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="69.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="21" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="38.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="24"/>
+      <c r="B3" s="23"/>
     </row>
     <row r="4" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="29" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="60.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="31"/>
-      <c r="B11" s="30" t="s">
+      <c r="A11" s="30"/>
+      <c r="B11" s="29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
     </row>
     <row r="13" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="27" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="28" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="29" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="31"/>
-      <c r="B19" s="30" t="s">
+      <c r="A19" s="30"/>
+      <c r="B19" s="29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="26" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="27" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="28" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="29" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="31"/>
-      <c r="B26" s="30" t="s">
+      <c r="A26" s="30"/>
+      <c r="B26" s="29" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="31"/>
-      <c r="B27" s="30" t="s">
+      <c r="A27" s="30"/>
+      <c r="B27" s="29" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="31"/>
-      <c r="B28" s="30" t="s">
+      <c r="A28" s="30"/>
+      <c r="B28" s="29" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="31"/>
-      <c r="B29" s="30" t="s">
+      <c r="A29" s="30"/>
+      <c r="B29" s="29" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="22" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="22" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="26" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="27" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="28" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="29" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="31"/>
-      <c r="B38" s="30" t="s">
-        <v>121</v>
+      <c r="A38" s="30"/>
+      <c r="B38" s="29" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="31"/>
-      <c r="B39" s="30" t="s">
+      <c r="A39" s="30"/>
+      <c r="B39" s="29" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="31"/>
-      <c r="B40" s="30" t="s">
-        <v>128</v>
+      <c r="A40" s="30"/>
+      <c r="B40" s="29" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="31" t="s">
-        <v>129</v>
+      <c r="B41" s="30" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="31" t="s">
-        <v>130</v>
+      <c r="B42" s="30" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="31" t="s">
-        <v>131</v>
+      <c r="B43" s="30" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="31" t="s">
-        <v>132</v>
+      <c r="B44" s="30" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="31" t="s">
-        <v>133</v>
+      <c r="B45" s="30" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="31" t="s">
-        <v>134</v>
+      <c r="B46" s="30" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="31" t="s">
-        <v>135</v>
+      <c r="B47" s="30" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="27" t="s">
-        <v>136</v>
+      <c r="B49" s="26" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="27" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="29" t="s">
-        <v>137</v>
+      <c r="B51" s="28" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="30" t="s">
-        <v>138</v>
+      <c r="B52" s="29" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="30"/>
+      <c r="B54" s="29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="29" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="31"/>
-      <c r="B54" s="30" t="s">
+    <row r="61" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="29" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="31" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="31" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="31" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="31" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="29" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="30" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="30" t="s">
+    <row r="62" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="94.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="30"/>
+      <c r="B72" s="30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="30"/>
+      <c r="B73" s="29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="30" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="94.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="B85" s="26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="29" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="30" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="31" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="31" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="31" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B67" s="27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="28" t="s">
+    <row r="89" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="30"/>
+      <c r="B90" s="29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B97" s="32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="27" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="29" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="30" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="30" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="94.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="31"/>
-      <c r="B72" s="31" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="31"/>
-      <c r="B73" s="30" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="31" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="31" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="31" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="29" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="30" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="30" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="94.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="31" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="23" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="31" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="31" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="B85" s="27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="28" t="s">
+    <row r="99" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="29" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="30"/>
+      <c r="B102" s="30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="30"/>
+      <c r="B103" s="29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B107" s="32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="27" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="29" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="30" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="30" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="31"/>
-      <c r="B90" s="30" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="31" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="31" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="31" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="31" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="31" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="B97" s="33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="28" t="s">
+    <row r="109" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="29" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="30"/>
+      <c r="B112" s="29" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B117" s="32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="27" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="29" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="30" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="30" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="31"/>
-      <c r="B102" s="31" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="31"/>
-      <c r="B103" s="30" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="31" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="31" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B107" s="33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="28" t="s">
+    <row r="119" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="28" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="29" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="30"/>
+      <c r="B122" s="29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B124" s="32" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="27" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="29" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="30" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="30" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="31"/>
-      <c r="B112" s="30" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="31" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="31" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="31" t="s">
+    <row r="126" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="30"/>
+      <c r="B129" s="29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="30" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="30" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="30" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B135" s="28" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B136" s="29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="30" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="30" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="30" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B144" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="30"/>
+      <c r="B149" s="29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="30" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="30" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="30" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="30" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B157" s="32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B158" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B159" s="28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B160" s="29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B161" s="29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="30"/>
+      <c r="B162" s="29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B163" s="30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="94.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B164" s="30" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B165" s="30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B166" s="30" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B167" s="30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B168" s="30" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B169" s="28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B170" s="29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B171" s="29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B172" s="29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B173" s="30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="94.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B174" s="30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B175" s="30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B176" s="30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B177" s="30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B178" s="30" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B180" s="32" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B181" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B182" s="28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B183" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B184" s="30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B185" s="30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B186" s="30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B187" s="30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B188" s="30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B189" s="30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B190" s="30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B191" s="30" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B192" s="30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B193" s="30" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B194" s="30" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B196" s="32" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B197" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B198" s="28" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B199" s="30" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B200" s="30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="132.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B201" s="30" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B202" s="30" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B203" s="30" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B204" s="30" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B205" s="30" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B117" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="28" t="s">
+    <row r="206" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B206" s="30" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B207" s="30" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B208" s="30" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B210" s="32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B211" s="27" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="29" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="30" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="30" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="31"/>
-      <c r="B122" s="30" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="B124" s="33" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="28" t="s">
+    <row r="212" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B212" s="28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B213" s="30" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B214" s="30" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="94.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B215" s="30" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B216" s="30" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B217" s="30" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B218" s="30" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="B220" s="32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B221" s="27" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="29" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="30" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="30" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="31"/>
-      <c r="B129" s="30" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="31" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="31" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="31" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="31" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="31" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="29" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="30" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="30" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="30" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="31" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="31" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="31" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="31" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B144" s="33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="28" t="s">
+    <row r="222" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B222" s="28" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B223" s="30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B224" s="30" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B225" s="30" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B226" s="30" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B227" s="30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B228" s="30" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B229" s="30" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B230" s="30" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B232" s="32" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B233" s="27" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="29" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="30" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="31"/>
-      <c r="B149" s="30" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="31" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="31" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="31" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="31" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="31" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="31" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B157" s="33" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="29" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="30" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="31"/>
-      <c r="B162" s="30" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="31" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="94.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="31" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B165" s="31" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="31" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="31" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B168" s="31" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B169" s="29" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B171" s="30" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="30" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="31" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="94.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="31" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B175" s="31" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="31" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B177" s="31" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B178" s="31" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="B180" s="33" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B181" s="28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B182" s="29" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B183" s="30" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B184" s="31" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B185" s="31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B186" s="31" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B187" s="31" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B188" s="31" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B189" s="31" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B190" s="31" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B191" s="31" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B192" s="31" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B193" s="31" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B194" s="31" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="B196" s="33" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B197" s="28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B198" s="29" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B199" s="31" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B200" s="31" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="132.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B201" s="31" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B202" s="31" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B203" s="31" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B204" s="31" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B205" s="31" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B206" s="31" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B207" s="31" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B208" s="31" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B210" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B211" s="28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B212" s="29" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B213" s="31" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B214" s="31" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="94.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B215" s="31" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B216" s="31" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B217" s="31" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B218" s="31" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="B220" s="33" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B221" s="28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B222" s="29" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B223" s="31" t="s">
+    <row r="234" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B234" s="28" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B224" s="31" t="s">
+    <row r="235" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B235" s="30" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B225" s="31" t="s">
+    <row r="236" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B236" s="30" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B226" s="31" t="s">
+    <row r="237" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B237" s="30" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B227" s="31" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B228" s="31" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B229" s="31" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B230" s="31" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="B232" s="33" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B233" s="28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B234" s="29" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B235" s="31" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B236" s="31" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B237" s="31" t="s">
-        <v>261</v>
-      </c>
-    </row>
     <row r="238" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B238" s="31" t="s">
-        <v>268</v>
+      <c r="B238" s="30" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B239" s="31" t="s">
-        <v>269</v>
+      <c r="B239" s="30" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B240" s="31" t="s">
-        <v>270</v>
+      <c r="B240" s="30" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B241" s="31" t="s">
-        <v>271</v>
+      <c r="B241" s="30" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B242" s="31" t="s">
-        <v>272</v>
+      <c r="B242" s="30" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/UserStories/arslan/User_Stories.xlsx
+++ b/UserStories/arslan/User_Stories.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Διεργασία" sheetId="1" state="visible" r:id="rId2"/>
@@ -4980,7 +4980,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.41"/>
@@ -5213,8 +5213,8 @@
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5356,7 +5356,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="35.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="61.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="s">
         <v>64</v>
       </c>
@@ -5545,8 +5545,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A196" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A196" activeCellId="0" sqref="A196"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A176" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B176" activeCellId="0" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/UserStories/arslan/User_Stories.xlsx
+++ b/UserStories/arslan/User_Stories.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="269">
   <si>
     <t xml:space="preserve"> Βήματα διεργασίας SCRUM</t>
   </si>
@@ -212,10 +212,10 @@
     <t xml:space="preserve">US07</t>
   </si>
   <si>
-    <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα να προσθετω/αφαιρω μαθημα στο ΠΣ για να μπορω να δηλωνω καινουρια μαθηματα και να αφαιρω μη-διδακταια μαθηματα.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη "Επεξεργασιας Μαθηματων” η οποια θα οδηγει τον διαχειριστη στο περιβαλλον διαχειρησης μαθηματων.</t>
+    <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα να προσθετω μαθημα στο ΠΣ για να μπορω να δηλωνω καινουρια μαθηματα.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη "Επεξεργασιας Μαθηματων” η οποια θα οδηγει τον διαχειριστη στο περιβαλλον διαχειρησης μαθηματων.Οπου,συμπληρωνοντας ολα τα πεδια,θα υπαρχει κουμπι προσθηκη για προσθηκη μαθηματος στο ΠΣ(ειτε εργαστηριο ειτε θεωρια)</t>
   </si>
   <si>
     <t xml:space="preserve">US08</t>
@@ -1620,7 +1620,7 @@
         <family val="2"/>
         <charset val="161"/>
       </rPr>
-      <t xml:space="preserve">Αφαιρεση υπαρχοντος μαθηματος</t>
+      <t xml:space="preserve">Προσθηκη καινουριου μαθηματος</t>
     </r>
   </si>
   <si>
@@ -1720,199 +1720,6 @@
     <r>
       <rPr>
         <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Οταν </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">πατησω το κουμπι Διαγραφη διπλα σε καποιο μαθηματα,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τοτε</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> το συστημα εμφανιζει μηνυμα της μορφης </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[Θελετε να διαγραψετε το μαθημα][Ονομα Μαθηματος]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> και δυο κουμπια </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[Ναι]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> και </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[Οχι]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Και οταν</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> πατησω το κουμπι [Ναι] για επιβεβαιωση,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τοτε</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> το συστημα εμφανιζει μηνυμα της μορφης </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[Ονομα Μαθηματος]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> αφαιρεθηκε επιτυχως</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-      </rPr>
-      <t xml:space="preserve">Σενάριο: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-      </rPr>
-      <t xml:space="preserve">Προσθηκη καινουριου μαθηματος</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -1929,7 +1736,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> γεμισω την φορμα – ονομα μαθηματος,εξαμηνο,αν εχει εργαστηριακο μερος,κωδικος μαθηματος,Ονομα καθηγητη που διδασκει την θεωρια,αν ειναι μαθημα κατευθυνσης</t>
+      <t xml:space="preserve"> γεμισω την φορμα – ονομα μαθηματος,εξαμηνο,αν εχει εργαστηριακο μερος(αν ειναι μαθημα θεωριας),Ονομα καθηγητη που διδασκει την θεωρια/εργαστηριο,τα προαπαιτοθμενα μαθηματα θεωριας(αν ειναι θεωρια)</t>
     </r>
   </si>
   <si>
@@ -4980,7 +4787,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.41"/>
@@ -5213,8 +5020,8 @@
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5323,7 +5130,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="54.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="82.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
         <v>55</v>
       </c>
@@ -5545,8 +5352,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A176" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B176" activeCellId="0" sqref="B176"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B75" activeCellId="0" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5894,7 +5701,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="25" t="s">
         <v>55</v>
       </c>
@@ -5923,241 +5730,238 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="94.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="30"/>
       <c r="B72" s="30" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="30"/>
-      <c r="B73" s="29" t="s">
+    <row r="73" customFormat="false" ht="94.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="22" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="30" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="30" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="30" t="s">
+    <row r="77" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="25" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="28" t="s">
+      <c r="B77" s="26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="28" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="29" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="29" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="94.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="30" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="22" t="s">
+    <row r="80" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="29" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="30" t="s">
+    <row r="82" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="30"/>
+      <c r="B82" s="29" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="30" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="25" t="s">
+    <row r="84" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="B85" s="26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="27" t="s">
+    </row>
+    <row r="85" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B89" s="32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="27" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="28" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="30"/>
-      <c r="B90" s="29" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="30" t="s">
+    <row r="91" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="28" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="30" t="s">
+    <row r="92" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="29" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="30" t="s">
+    <row r="93" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="29" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="30"/>
       <c r="B94" s="30" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="30" t="s">
+    <row r="95" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="30"/>
+      <c r="B95" s="29" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B97" s="32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="27" t="s">
+    <row r="96" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B99" s="32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="27" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="28" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="29" t="s">
-        <v>173</v>
-      </c>
-    </row>
     <row r="101" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="29" t="s">
+      <c r="B101" s="28" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="30"/>
-      <c r="B102" s="30" t="s">
+    <row r="102" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="29" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="30"/>
+    <row r="103" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="29" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="30" t="s">
+    <row r="104" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="30"/>
+      <c r="B104" s="29" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="30" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B107" s="32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="27" t="s">
+    <row r="106" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B109" s="32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="27" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="28" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="29" t="s">
-        <v>180</v>
-      </c>
-    </row>
     <row r="111" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="29" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="30"/>
+      <c r="B111" s="28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="29" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="30" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="30" t="s">
+    <row r="113" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="29" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="30" t="s">
+    <row r="114" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="30"/>
+      <c r="B114" s="29" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B117" s="32" t="s">
+    <row r="116" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B116" s="32" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="27" t="s">
+    <row r="117" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="27" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="28" t="s">
+    <row r="118" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="28" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="29" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6165,604 +5969,573 @@
         <v>188</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="30"/>
       <c r="B121" s="29" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="30"/>
-      <c r="B122" s="29" t="s">
+    <row r="122" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="30" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B124" s="32" t="s">
+    <row r="123" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="30" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="28" t="s">
+    <row r="124" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="30" t="s">
         <v>192</v>
       </c>
     </row>
+    <row r="125" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="30" t="s">
+        <v>194</v>
+      </c>
+    </row>
     <row r="127" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="29" t="s">
-        <v>139</v>
+      <c r="B127" s="28" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="29" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="30"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="29" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="30" t="s">
-        <v>195</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="29" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="30" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="30" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="30" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="30" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="28" t="s">
+    <row r="136" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B136" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="28" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="29" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="29" t="s">
+    <row r="139" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="29" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="30" t="s">
+    <row r="140" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="29" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="30" t="s">
+    <row r="141" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="30"/>
+      <c r="B141" s="29" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="30" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="30" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B144" s="32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="27" t="s">
+    <row r="143" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="30" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="30" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B149" s="32" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="27" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="28" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="29" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="29" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="30"/>
-      <c r="B149" s="29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="30" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="30" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="30" t="s">
+    <row r="151" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="28" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="30" t="s">
+    <row r="152" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="30"/>
+      <c r="B154" s="29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="30" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="94.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B156" s="30" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="30" t="s">
+    <row r="157" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B157" s="30" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="30" t="s">
+    <row r="158" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B158" s="30" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B157" s="32" t="s">
+    <row r="159" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B159" s="30" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="28" t="s">
+    <row r="160" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B160" s="30" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="29" t="s">
-        <v>206</v>
-      </c>
-    </row>
     <row r="161" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="29" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="30"/>
+      <c r="B161" s="28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="30" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="94.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="30" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B163" s="29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B164" s="29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="30" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="94.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B166" s="30" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="30" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B169" s="30" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B170" s="30" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B169" s="28" t="s">
+    <row r="172" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B172" s="32" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="29" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B171" s="29" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="30" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="94.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="30" t="s">
+    <row r="173" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B173" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B174" s="28" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B175" s="30" t="s">
+    <row r="175" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B175" s="29" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="30" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="30" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="30" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="B180" s="32" t="s">
+    <row r="179" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B179" s="30" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B181" s="27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B182" s="28" t="s">
+    <row r="180" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B180" s="30" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B183" s="29" t="s">
+    <row r="181" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B181" s="30" t="s">
         <v>229</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B182" s="30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B183" s="30" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="30" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B185" s="30" t="s">
-        <v>110</v>
+        <v>233</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="30" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B187" s="30" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B188" s="30" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B189" s="30" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B190" s="30" t="s">
+    <row r="188" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B188" s="32" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B189" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B190" s="28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="30" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="30" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="132.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B193" s="30" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B194" s="30" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B195" s="30" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B196" s="30" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B197" s="30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B198" s="30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B199" s="30" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B200" s="30" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B202" s="32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B203" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B204" s="28" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B205" s="30" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B193" s="30" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B194" s="30" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="B196" s="32" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B197" s="27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B198" s="28" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B199" s="30" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B200" s="30" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="132.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B201" s="30" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B202" s="30" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B203" s="30" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B204" s="30" t="s">
+    <row r="206" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B206" s="30" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B205" s="30" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B206" s="30" t="s">
+    <row r="207" customFormat="false" ht="94.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B207" s="30" t="s">
         <v>248</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B207" s="30" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="30" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B209" s="30" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="B210" s="32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B211" s="27" t="s">
+    <row r="210" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B210" s="30" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="B212" s="32" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B213" s="27" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B212" s="28" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B213" s="30" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B214" s="30" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="94.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B214" s="28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B215" s="30" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="30" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B217" s="30" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B218" s="30" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B219" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B220" s="30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B221" s="30" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B222" s="30" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B224" s="32" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B225" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B226" s="28" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B217" s="30" t="s">
+    <row r="227" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B227" s="30" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B218" s="30" t="s">
+    <row r="228" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B228" s="30" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="25" t="s">
+    <row r="229" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B229" s="30" t="s">
         <v>257</v>
-      </c>
-      <c r="B220" s="32" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B221" s="27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B222" s="28" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B223" s="30" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B224" s="30" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B225" s="30" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B226" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B227" s="30" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B228" s="30" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B229" s="30" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B231" s="30" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B232" s="30" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B233" s="30" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="B232" s="32" t="s">
+    <row r="234" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B234" s="30" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B233" s="27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B234" s="28" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B235" s="30" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B236" s="30" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B237" s="30" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B238" s="30" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B239" s="30" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B240" s="30" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B241" s="30" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B242" s="30" t="s">
-        <v>273</v>
-      </c>
-    </row>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
